--- a/static/HSK1.xlsx
+++ b/static/HSK1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/git/vocabApp/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/Box/IBM Systems/git/vocabApp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF96B92-578C-4745-B36E-D40699FEA78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C49D4C-5101-F549-9530-70E221BE3D2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2691,7 +2691,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
